--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2577,28 +2577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.3537148011657</v>
+        <v>377.7020380235296</v>
       </c>
       <c r="AB2" t="n">
-        <v>434.2173532487362</v>
+        <v>516.7885914616936</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.7762584825589</v>
+        <v>467.4670136099324</v>
       </c>
       <c r="AD2" t="n">
-        <v>317353.7148011657</v>
+        <v>377702.0380235296</v>
       </c>
       <c r="AE2" t="n">
-        <v>434217.3532487362</v>
+        <v>516788.5914616936</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.121743113638446e-06</v>
+        <v>3.058841543046154e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.32291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>392776.2584825589</v>
+        <v>467467.0136099324</v>
       </c>
     </row>
     <row r="3">
@@ -2683,28 +2683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.4867634468853</v>
+        <v>247.5683510782816</v>
       </c>
       <c r="AB3" t="n">
-        <v>279.7878110672098</v>
+        <v>338.7339398899636</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.0852550636966</v>
+        <v>306.4056480830369</v>
       </c>
       <c r="AD3" t="n">
-        <v>204486.7634468853</v>
+        <v>247568.3510782816</v>
       </c>
       <c r="AE3" t="n">
-        <v>279787.8110672098</v>
+        <v>338733.9398899636</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.91161975792365e-06</v>
+        <v>4.197578592734623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.43981481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>253085.2550636966</v>
+        <v>306405.6480830369</v>
       </c>
     </row>
     <row r="4">
@@ -2789,28 +2789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>176.8000991912936</v>
+        <v>219.7963459681182</v>
       </c>
       <c r="AB4" t="n">
-        <v>241.9056955833068</v>
+        <v>300.735057283863</v>
       </c>
       <c r="AC4" t="n">
-        <v>218.8185555136822</v>
+        <v>272.0333255010838</v>
       </c>
       <c r="AD4" t="n">
-        <v>176800.0991912936</v>
+        <v>219796.3459681182</v>
       </c>
       <c r="AE4" t="n">
-        <v>241905.6955833068</v>
+        <v>300735.057283863</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.222581168217048e-06</v>
+        <v>4.645880592149877e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.432870370370372</v>
       </c>
       <c r="AH4" t="n">
-        <v>218818.5555136823</v>
+        <v>272033.3255010837</v>
       </c>
     </row>
     <row r="5">
@@ -2895,28 +2895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.3646512923881</v>
+        <v>201.4461494152334</v>
       </c>
       <c r="AB5" t="n">
-        <v>216.6815024534767</v>
+        <v>275.627508806682</v>
       </c>
       <c r="AC5" t="n">
-        <v>196.0017239737776</v>
+        <v>249.3220062118914</v>
       </c>
       <c r="AD5" t="n">
-        <v>158364.6512923882</v>
+        <v>201446.1494152334</v>
       </c>
       <c r="AE5" t="n">
-        <v>216681.5024534767</v>
+        <v>275627.508806682</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.390272399945948e-06</v>
+        <v>4.887635073509936e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.96412037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>196001.7239737776</v>
+        <v>249322.0062118914</v>
       </c>
     </row>
     <row r="6">
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>151.3113388164889</v>
+        <v>194.3928369393342</v>
       </c>
       <c r="AB6" t="n">
-        <v>207.0308491537711</v>
+        <v>265.9768555069764</v>
       </c>
       <c r="AC6" t="n">
-        <v>187.2721154802159</v>
+        <v>240.5923977183296</v>
       </c>
       <c r="AD6" t="n">
-        <v>151311.3388164889</v>
+        <v>194392.8369393342</v>
       </c>
       <c r="AE6" t="n">
-        <v>207030.8491537711</v>
+        <v>265976.8555069764</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.499037993716869e-06</v>
+        <v>5.044438559540842e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.686342592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>187272.1154802159</v>
+        <v>240592.3977183296</v>
       </c>
     </row>
     <row r="7">
@@ -3107,28 +3107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>149.3195389928298</v>
+        <v>192.4010371156751</v>
       </c>
       <c r="AB7" t="n">
-        <v>204.3055807630355</v>
+        <v>263.2515871162409</v>
       </c>
       <c r="AC7" t="n">
-        <v>184.8069428797531</v>
+        <v>238.1272251178668</v>
       </c>
       <c r="AD7" t="n">
-        <v>149319.5389928298</v>
+        <v>192401.037115675</v>
       </c>
       <c r="AE7" t="n">
-        <v>204305.5807630355</v>
+        <v>263251.5871162409</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.52314393651786e-06</v>
+        <v>5.079191239448222e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.628472222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>184806.9428797531</v>
+        <v>238127.2251178668</v>
       </c>
     </row>
     <row r="8">
@@ -3213,28 +3213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>149.6348618094724</v>
+        <v>192.7163599323177</v>
       </c>
       <c r="AB8" t="n">
-        <v>204.7370193518266</v>
+        <v>263.6830257050319</v>
       </c>
       <c r="AC8" t="n">
-        <v>185.1972055751579</v>
+        <v>238.5174878132716</v>
       </c>
       <c r="AD8" t="n">
-        <v>149634.8618094724</v>
+        <v>192716.3599323177</v>
       </c>
       <c r="AE8" t="n">
-        <v>204737.0193518266</v>
+        <v>263683.0257050319</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.522513715791036e-06</v>
+        <v>5.078282672653258e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.628472222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>185197.2055751579</v>
+        <v>238517.4878132716</v>
       </c>
     </row>
   </sheetData>
@@ -3510,28 +3510,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.7386846198886</v>
+        <v>297.3285668044815</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.5987536392901</v>
+        <v>406.8180623124938</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.3788024148834</v>
+        <v>367.9919174181251</v>
       </c>
       <c r="AD2" t="n">
-        <v>246738.6846198886</v>
+        <v>297328.5668044815</v>
       </c>
       <c r="AE2" t="n">
-        <v>337598.7536392901</v>
+        <v>406818.0623124938</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.509535953780367e-06</v>
+        <v>3.673866230219701e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.52893518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>305378.8024148833</v>
+        <v>367991.9174181251</v>
       </c>
     </row>
     <row r="3">
@@ -3616,28 +3616,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.2573447933578</v>
+        <v>212.3444625683724</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.9536103701033</v>
+        <v>290.5390616624425</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.7208447488935</v>
+        <v>262.8104213915987</v>
       </c>
       <c r="AD3" t="n">
-        <v>170257.3447933578</v>
+        <v>212344.4625683724</v>
       </c>
       <c r="AE3" t="n">
-        <v>232953.6103701033</v>
+        <v>290539.0616624425</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.25423100949398e-06</v>
+        <v>4.764071777136231e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.664351851851851</v>
       </c>
       <c r="AH3" t="n">
-        <v>210720.8447488935</v>
+        <v>262810.4213915987</v>
       </c>
     </row>
     <row r="4">
@@ -3722,28 +3722,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.2475969612482</v>
+        <v>190.2493738816911</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.8389023846814</v>
+        <v>260.307586554823</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.4802422273326</v>
+        <v>235.464195838099</v>
       </c>
       <c r="AD4" t="n">
-        <v>148247.5969612482</v>
+        <v>190249.3738816911</v>
       </c>
       <c r="AE4" t="n">
-        <v>202838.9023846814</v>
+        <v>260307.5865548231</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.518489910128036e-06</v>
+        <v>5.150936866521364e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.935185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>183480.2422273326</v>
+        <v>235464.195838099</v>
       </c>
     </row>
     <row r="5">
@@ -3828,28 +3828,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>140.2163506408137</v>
+        <v>173.971385715397</v>
       </c>
       <c r="AB5" t="n">
-        <v>191.850196855487</v>
+        <v>238.035325011556</v>
       </c>
       <c r="AC5" t="n">
-        <v>173.5402833310959</v>
+        <v>215.3175676771988</v>
       </c>
       <c r="AD5" t="n">
-        <v>140216.3506408137</v>
+        <v>173971.385715397</v>
       </c>
       <c r="AE5" t="n">
-        <v>191850.196855487</v>
+        <v>238035.325011556</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.66479937135491e-06</v>
+        <v>5.365128413748781e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.576388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>173540.2833310959</v>
+        <v>215317.5676771989</v>
       </c>
     </row>
     <row r="6">
@@ -3934,28 +3934,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>140.495892563163</v>
+        <v>182.497669483606</v>
       </c>
       <c r="AB6" t="n">
-        <v>192.2326784461644</v>
+        <v>249.7013626163061</v>
       </c>
       <c r="AC6" t="n">
-        <v>173.8862614155755</v>
+        <v>225.8702150263419</v>
       </c>
       <c r="AD6" t="n">
-        <v>140495.892563163</v>
+        <v>182497.669483606</v>
       </c>
       <c r="AE6" t="n">
-        <v>192232.6784461644</v>
+        <v>249701.3626163061</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.663549791849445e-06</v>
+        <v>5.363299076360653e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.582175925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>173886.2614155755</v>
+        <v>225870.2150263419</v>
       </c>
     </row>
   </sheetData>
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.9762007235397</v>
+        <v>171.6420521941463</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.9439043258065</v>
+        <v>234.8482281248401</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.5794334568761</v>
+        <v>212.4346428442316</v>
       </c>
       <c r="AD2" t="n">
-        <v>132976.2007235397</v>
+        <v>171642.0521941463</v>
       </c>
       <c r="AE2" t="n">
-        <v>181943.9043258065</v>
+        <v>234848.2281248402</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.767408918850625e-06</v>
+        <v>5.828646619727053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.311342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>164579.4334568761</v>
+        <v>212434.6428442316</v>
       </c>
     </row>
     <row r="3">
@@ -4337,28 +4337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.0754056331425</v>
+        <v>157.8265084497696</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.9242232233368</v>
+        <v>215.9451916750197</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.37496402453</v>
+        <v>195.3356856625977</v>
       </c>
       <c r="AD3" t="n">
-        <v>119075.4056331425</v>
+        <v>157826.5084497696</v>
       </c>
       <c r="AE3" t="n">
-        <v>162924.2232233368</v>
+        <v>215945.1916750197</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.961344634791072e-06</v>
+        <v>6.128689110337681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.854166666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>147374.96402453</v>
+        <v>195335.6856625977</v>
       </c>
     </row>
   </sheetData>
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.5608415661667</v>
+        <v>208.5829177788686</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.6323798102215</v>
+        <v>285.3923501338018</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.6211491757785</v>
+        <v>258.1549047877948</v>
       </c>
       <c r="AD2" t="n">
-        <v>168560.8415661668</v>
+        <v>208582.9177788686</v>
       </c>
       <c r="AE2" t="n">
-        <v>230632.3798102215</v>
+        <v>285392.3501338018</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.249857382743868e-06</v>
+        <v>4.911489860829158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.32986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>208621.1491757785</v>
+        <v>258154.9047877948</v>
       </c>
     </row>
     <row r="3">
@@ -4740,28 +4740,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.9994945629113</v>
+        <v>167.0214812670621</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.7663112831721</v>
+        <v>228.526159137204</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.1822984169042</v>
+        <v>206.7159432476939</v>
       </c>
       <c r="AD3" t="n">
-        <v>126999.4945629113</v>
+        <v>167021.4812670621</v>
       </c>
       <c r="AE3" t="n">
-        <v>173766.3112831721</v>
+        <v>228526.1591372041</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.853431323713179e-06</v>
+        <v>5.823667517323294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.709490740740742</v>
       </c>
       <c r="AH3" t="n">
-        <v>157182.2984169042</v>
+        <v>206715.9432476939</v>
       </c>
     </row>
     <row r="4">
@@ -4846,28 +4846,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.5672159608288</v>
+        <v>166.5892026649796</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.1748486290171</v>
+        <v>227.934696483049</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.6472841283384</v>
+        <v>206.1809289591282</v>
       </c>
       <c r="AD4" t="n">
-        <v>126567.2159608288</v>
+        <v>166589.2026649796</v>
       </c>
       <c r="AE4" t="n">
-        <v>173174.8486290171</v>
+        <v>227934.696483049</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.875528150032898e-06</v>
+        <v>5.857062317661938e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.657407407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>156647.2841283384</v>
+        <v>206180.9289591282</v>
       </c>
     </row>
   </sheetData>
@@ -5143,28 +5143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.1758377340875</v>
+        <v>151.4111737912027</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.7981270883726</v>
+        <v>207.1674477705826</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.974586538237</v>
+        <v>187.3956773167564</v>
       </c>
       <c r="AD2" t="n">
-        <v>121175.8377340875</v>
+        <v>151411.1737912027</v>
       </c>
       <c r="AE2" t="n">
-        <v>165798.1270883726</v>
+        <v>207167.4477705826</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.964337838432764e-06</v>
+        <v>6.265588343303455e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.189814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>149974.5865382371</v>
+        <v>187395.6773167564</v>
       </c>
     </row>
   </sheetData>
@@ -5440,28 +5440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.760477267213</v>
+        <v>317.9944149797236</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.0475007035788</v>
+        <v>435.0939874987361</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.2577041452166</v>
+        <v>393.5692279901027</v>
       </c>
       <c r="AD2" t="n">
-        <v>258760.477267213</v>
+        <v>317994.4149797236</v>
       </c>
       <c r="AE2" t="n">
-        <v>354047.5007035788</v>
+        <v>435093.9874987361</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.40719986147731e-06</v>
+        <v>3.509423672710167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.94560185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>320257.7041452166</v>
+        <v>393569.2279901027</v>
       </c>
     </row>
     <row r="3">
@@ -5546,28 +5546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.7347925313539</v>
+        <v>219.105705793555</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.816340130051</v>
+        <v>299.7900929281319</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.737728019474</v>
+        <v>271.1785472171976</v>
       </c>
       <c r="AD3" t="n">
-        <v>176734.7925313539</v>
+        <v>219105.705793555</v>
       </c>
       <c r="AE3" t="n">
-        <v>241816.340130051</v>
+        <v>299790.0929281319</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.159258007826258e-06</v>
+        <v>4.605838932734225e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.861111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>218737.728019474</v>
+        <v>271178.5472171976</v>
       </c>
     </row>
     <row r="4">
@@ -5652,28 +5652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.6208548384035</v>
+        <v>195.5176749567154</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.1367837986946</v>
+        <v>267.5159085067077</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.031799520436</v>
+        <v>241.9845656598414</v>
       </c>
       <c r="AD4" t="n">
-        <v>161620.8548384035</v>
+        <v>195517.6749567154</v>
       </c>
       <c r="AE4" t="n">
-        <v>221136.7837986946</v>
+        <v>267515.9085067076</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.443971887973252e-06</v>
+        <v>5.020919394862461e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.045138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>200031.799520436</v>
+        <v>241984.5656598414</v>
       </c>
     </row>
     <row r="5">
@@ -5758,28 +5758,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>144.4845645400352</v>
+        <v>186.7701369476647</v>
       </c>
       <c r="AB5" t="n">
-        <v>197.6901554127067</v>
+        <v>255.5471410885899</v>
       </c>
       <c r="AC5" t="n">
-        <v>178.8228844400497</v>
+        <v>231.1580806058345</v>
       </c>
       <c r="AD5" t="n">
-        <v>144484.5645400352</v>
+        <v>186770.1369476647</v>
       </c>
       <c r="AE5" t="n">
-        <v>197690.1554127067</v>
+        <v>255547.1410885899</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.598497008249705e-06</v>
+        <v>5.246199449005435e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.657407407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>178822.8844400497</v>
+        <v>231158.0806058345</v>
       </c>
     </row>
     <row r="6">
@@ -5864,28 +5864,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>142.6374470445257</v>
+        <v>184.9230194521552</v>
       </c>
       <c r="AB6" t="n">
-        <v>195.1628477662791</v>
+        <v>253.0198334421624</v>
       </c>
       <c r="AC6" t="n">
-        <v>176.5367794882978</v>
+        <v>228.8719756540826</v>
       </c>
       <c r="AD6" t="n">
-        <v>142637.4470445257</v>
+        <v>184923.0194521552</v>
       </c>
       <c r="AE6" t="n">
-        <v>195162.8477662791</v>
+        <v>253019.8334421624</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.623264100698194e-06</v>
+        <v>5.282307053502218e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.599537037037036</v>
       </c>
       <c r="AH6" t="n">
-        <v>176536.7794882978</v>
+        <v>228871.9756540826</v>
       </c>
     </row>
     <row r="7">
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>142.9371872726713</v>
+        <v>185.2227596803008</v>
       </c>
       <c r="AB7" t="n">
-        <v>195.5729655700333</v>
+        <v>253.4299512459166</v>
       </c>
       <c r="AC7" t="n">
-        <v>176.9077562244659</v>
+        <v>229.2429523902506</v>
       </c>
       <c r="AD7" t="n">
-        <v>142937.1872726713</v>
+        <v>185222.7596803008</v>
       </c>
       <c r="AE7" t="n">
-        <v>195572.9655700334</v>
+        <v>253429.9512459166</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.622779527150289e-06</v>
+        <v>5.281600600370759e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.599537037037036</v>
       </c>
       <c r="AH7" t="n">
-        <v>176907.7562244658</v>
+        <v>229242.9523902506</v>
       </c>
     </row>
   </sheetData>
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.0394311804992</v>
+        <v>155.0456488851254</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.5067572732636</v>
+        <v>212.1402969358099</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.0927790353054</v>
+        <v>191.8939247370936</v>
       </c>
       <c r="AD2" t="n">
-        <v>118039.4311804991</v>
+        <v>155045.6488851254</v>
       </c>
       <c r="AE2" t="n">
-        <v>161506.7572732636</v>
+        <v>212140.29693581</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.934411105264014e-06</v>
+        <v>6.303850774665764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>146092.7790353054</v>
+        <v>191893.9247370937</v>
       </c>
     </row>
   </sheetData>
@@ -6564,28 +6564,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.5350703667286</v>
+        <v>254.7637550979732</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.2221508429761</v>
+        <v>348.5790091085223</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.3827034643727</v>
+        <v>315.311117713021</v>
       </c>
       <c r="AD2" t="n">
-        <v>205535.0703667286</v>
+        <v>254763.7550979732</v>
       </c>
       <c r="AE2" t="n">
-        <v>281222.1508429761</v>
+        <v>348579.0091085223</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.849695687392453e-06</v>
+        <v>4.23135125531388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.36574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>254382.7034643727</v>
+        <v>315311.1177130209</v>
       </c>
     </row>
     <row r="3">
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.2059325055199</v>
+        <v>186.1388733019621</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.6231158226765</v>
+        <v>254.6834183191535</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.6169798565109</v>
+        <v>230.3767903252703</v>
       </c>
       <c r="AD3" t="n">
-        <v>153205.9325055199</v>
+        <v>186138.8733019621</v>
       </c>
       <c r="AE3" t="n">
-        <v>209623.1158226765</v>
+        <v>254683.4183191535</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.526728615538984e-06</v>
+        <v>5.236638992904902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.184027777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>189616.9798565109</v>
+        <v>230376.7903252703</v>
       </c>
     </row>
     <row r="4">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.5837119620257</v>
+        <v>174.6644352173181</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.7751280038068</v>
+        <v>238.9835859152701</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.3313263136781</v>
+        <v>216.1753278911554</v>
       </c>
       <c r="AD4" t="n">
-        <v>133583.7119620257</v>
+        <v>174664.4352173181</v>
       </c>
       <c r="AE4" t="n">
-        <v>182775.1280038068</v>
+        <v>238983.5859152701</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.768378152604596e-06</v>
+        <v>5.595450664106263e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH4" t="n">
-        <v>165331.3263136781</v>
+        <v>216175.3278911554</v>
       </c>
     </row>
     <row r="5">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.7911655733368</v>
+        <v>174.8718888286292</v>
       </c>
       <c r="AB5" t="n">
-        <v>183.0589751870099</v>
+        <v>239.2674330984732</v>
       </c>
       <c r="AC5" t="n">
-        <v>165.5880835200984</v>
+        <v>216.4320850975757</v>
       </c>
       <c r="AD5" t="n">
-        <v>133791.1655733368</v>
+        <v>174871.8888286292</v>
       </c>
       <c r="AE5" t="n">
-        <v>183058.9751870099</v>
+        <v>239267.4330984732</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.766698864647225e-06</v>
+        <v>5.59295718480674e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.599537037037036</v>
       </c>
       <c r="AH5" t="n">
-        <v>165588.0835200984</v>
+        <v>216432.0850975757</v>
       </c>
     </row>
   </sheetData>
@@ -7179,28 +7179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.0217144491066</v>
+        <v>285.0874998329691</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.5670781353921</v>
+        <v>390.0692944443097</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.8771675204746</v>
+        <v>352.8416284482371</v>
       </c>
       <c r="AD2" t="n">
-        <v>235021.7144491065</v>
+        <v>285087.4998329691</v>
       </c>
       <c r="AE2" t="n">
-        <v>321567.0781353922</v>
+        <v>390069.2944443097</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.619699502696354e-06</v>
+        <v>3.852117431352031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.11805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>290877.1675204746</v>
+        <v>352841.6284482371</v>
       </c>
     </row>
     <row r="3">
@@ -7285,28 +7285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.4995833814326</v>
+        <v>206.1215217890734</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.0755871918051</v>
+        <v>282.0245595514385</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.5946890458546</v>
+        <v>255.1085314118874</v>
       </c>
       <c r="AD3" t="n">
-        <v>164499.5833814326</v>
+        <v>206121.5217890734</v>
       </c>
       <c r="AE3" t="n">
-        <v>225075.5871918051</v>
+        <v>282024.5595514385</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.343770953227021e-06</v>
+        <v>4.916822850146327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.49074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>203594.6890458546</v>
+        <v>255108.5314118874</v>
       </c>
     </row>
     <row r="4">
@@ -7391,28 +7391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.8894617627849</v>
+        <v>184.5966515164463</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.5076654219059</v>
+        <v>252.5732824341885</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.8486882308263</v>
+        <v>228.4680428475714</v>
       </c>
       <c r="AD4" t="n">
-        <v>142889.4617627849</v>
+        <v>184596.6515164463</v>
       </c>
       <c r="AE4" t="n">
-        <v>195507.6654219059</v>
+        <v>252573.2824341885</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.609442980675176e-06</v>
+        <v>5.307478284825888e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.796296296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>176848.6882308263</v>
+        <v>228468.0428475713</v>
       </c>
     </row>
     <row r="5">
@@ -7497,28 +7497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.773385316076</v>
+        <v>171.2927506572339</v>
       </c>
       <c r="AB5" t="n">
-        <v>188.5076239221588</v>
+        <v>234.3702983519407</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.516720867193</v>
+        <v>212.0023260180788</v>
       </c>
       <c r="AD5" t="n">
-        <v>137773.385316076</v>
+        <v>171292.7506572339</v>
       </c>
       <c r="AE5" t="n">
-        <v>188507.6239221588</v>
+        <v>234370.2983519407</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.703338627040007e-06</v>
+        <v>5.445546431847236e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.570601851851853</v>
       </c>
       <c r="AH5" t="n">
-        <v>170516.720867193</v>
+        <v>212002.3260180788</v>
       </c>
     </row>
     <row r="6">
@@ -7603,28 +7603,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>138.0948843933494</v>
+        <v>171.6142497345074</v>
       </c>
       <c r="AB6" t="n">
-        <v>188.9475131432224</v>
+        <v>234.8101875730042</v>
       </c>
       <c r="AC6" t="n">
-        <v>170.9146276783867</v>
+        <v>212.4002328292726</v>
       </c>
       <c r="AD6" t="n">
-        <v>138094.8843933494</v>
+        <v>171614.2497345073</v>
       </c>
       <c r="AE6" t="n">
-        <v>188947.5131432224</v>
+        <v>234810.1875730042</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.702954707925197e-06</v>
+        <v>5.444981900872265e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.570601851851853</v>
       </c>
       <c r="AH6" t="n">
-        <v>170914.6276783867</v>
+        <v>212400.2328292726</v>
       </c>
     </row>
   </sheetData>
@@ -7900,28 +7900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.2864251740383</v>
+        <v>354.3603916323426</v>
       </c>
       <c r="AB2" t="n">
-        <v>402.6556699239047</v>
+        <v>484.8515211085096</v>
       </c>
       <c r="AC2" t="n">
-        <v>364.2267779171485</v>
+        <v>438.5779724272964</v>
       </c>
       <c r="AD2" t="n">
-        <v>294286.4251740383</v>
+        <v>354360.3916323425</v>
       </c>
       <c r="AE2" t="n">
-        <v>402655.6699239047</v>
+        <v>484851.5211085096</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.210435702902638e-06</v>
+        <v>3.19799760271124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.8599537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>364226.7779171485</v>
+        <v>438577.9724272964</v>
       </c>
     </row>
     <row r="3">
@@ -8006,28 +8006,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.5270388980607</v>
+        <v>240.3517635936855</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.2652088981357</v>
+        <v>328.859886520174</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.4714766805798</v>
+        <v>297.4739605085359</v>
       </c>
       <c r="AD3" t="n">
-        <v>197527.0388980607</v>
+        <v>240351.7635936855</v>
       </c>
       <c r="AE3" t="n">
-        <v>270265.2088981357</v>
+        <v>328859.886520174</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.997574212457405e-06</v>
+        <v>4.336807957272691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.21990740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>244471.4766805798</v>
+        <v>297473.9605085359</v>
       </c>
     </row>
     <row r="4">
@@ -8112,28 +8112,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.7594473379828</v>
+        <v>214.4988311790359</v>
       </c>
       <c r="AB4" t="n">
-        <v>235.0088533397455</v>
+        <v>293.4867638395862</v>
       </c>
       <c r="AC4" t="n">
-        <v>212.5799382140653</v>
+        <v>265.4767990100826</v>
       </c>
       <c r="AD4" t="n">
-        <v>171759.4473379828</v>
+        <v>214498.8311790359</v>
       </c>
       <c r="AE4" t="n">
-        <v>235008.8533397455</v>
+        <v>293486.7638395862</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.295669373349389e-06</v>
+        <v>4.768083840421224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.293981481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>212579.9382140653</v>
+        <v>265476.7990100826</v>
       </c>
     </row>
     <row r="5">
@@ -8218,28 +8218,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.0403525349899</v>
+        <v>196.8649877220636</v>
       </c>
       <c r="AB5" t="n">
-        <v>210.7648061190104</v>
+        <v>269.3593612715003</v>
       </c>
       <c r="AC5" t="n">
-        <v>190.6497088333355</v>
+        <v>243.6520818800651</v>
       </c>
       <c r="AD5" t="n">
-        <v>154040.3525349899</v>
+        <v>196864.9877220636</v>
       </c>
       <c r="AE5" t="n">
-        <v>210764.8061190104</v>
+        <v>269359.3612715003</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.452737095311121e-06</v>
+        <v>4.99532510224003e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.871527777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>190649.7088333355</v>
+        <v>243652.0818800651</v>
       </c>
     </row>
     <row r="6">
@@ -8324,28 +8324,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.9010040562929</v>
+        <v>189.7256392433666</v>
       </c>
       <c r="AB6" t="n">
-        <v>200.9964345646363</v>
+        <v>259.5909897171263</v>
       </c>
       <c r="AC6" t="n">
-        <v>181.8136169501122</v>
+        <v>234.8159899968418</v>
       </c>
       <c r="AD6" t="n">
-        <v>146901.0040562929</v>
+        <v>189725.6392433666</v>
       </c>
       <c r="AE6" t="n">
-        <v>200996.4345646363</v>
+        <v>259590.9897171262</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.560254636027089e-06</v>
+        <v>5.150878524132176e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.605324074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>181813.6169501122</v>
+        <v>234815.9899968418</v>
       </c>
     </row>
     <row r="7">
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>147.2240833827261</v>
+        <v>190.0487185697998</v>
       </c>
       <c r="AB7" t="n">
-        <v>201.438485952316</v>
+        <v>260.0330411048059</v>
       </c>
       <c r="AC7" t="n">
-        <v>182.2134795737749</v>
+        <v>235.2158526205045</v>
       </c>
       <c r="AD7" t="n">
-        <v>147224.0833827262</v>
+        <v>190048.7185697998</v>
       </c>
       <c r="AE7" t="n">
-        <v>201438.485952316</v>
+        <v>260033.0411048059</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.553319728181796e-06</v>
+        <v>5.140845290125346e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.622685185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>182213.4795737749</v>
+        <v>235215.8526205045</v>
       </c>
     </row>
   </sheetData>
@@ -8727,28 +8727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.69159509371</v>
+        <v>226.1811096383314</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.1254796070159</v>
+        <v>309.4709726133377</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.9219250621466</v>
+        <v>279.9354973324502</v>
       </c>
       <c r="AD2" t="n">
-        <v>177691.5950937101</v>
+        <v>226181.1096383314</v>
       </c>
       <c r="AE2" t="n">
-        <v>243125.4796070159</v>
+        <v>309470.9726133377</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.110735150328383e-06</v>
+        <v>4.6713431135854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.65393518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>219921.9250621466</v>
+        <v>279935.4973324502</v>
       </c>
     </row>
     <row r="3">
@@ -8833,28 +8833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.3513857450612</v>
+        <v>172.7450910564837</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.0890049073612</v>
+        <v>236.3574545589297</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.806124439068</v>
+        <v>213.7998308256647</v>
       </c>
       <c r="AD3" t="n">
-        <v>132351.3857450612</v>
+        <v>172745.0910564837</v>
       </c>
       <c r="AE3" t="n">
-        <v>181089.0049073612</v>
+        <v>236357.4545589297</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.758814518490913e-06</v>
+        <v>5.644553929428474e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.819444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>163806.124439068</v>
+        <v>213799.8308256647</v>
       </c>
     </row>
     <row r="4">
@@ -8939,28 +8939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.8857404554428</v>
+        <v>169.2794457668653</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.3471561286281</v>
+        <v>231.6156057801966</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.5168310525492</v>
+        <v>209.5105374391458</v>
       </c>
       <c r="AD4" t="n">
-        <v>128885.7404554428</v>
+        <v>169279.4457668653</v>
       </c>
       <c r="AE4" t="n">
-        <v>176347.1561286281</v>
+        <v>231615.6057801966</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.843117525731567e-06</v>
+        <v>5.771150458318629e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.622685185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>159516.8310525492</v>
+        <v>209510.5374391458</v>
       </c>
     </row>
   </sheetData>
@@ -9236,28 +9236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.8576397046772</v>
+        <v>181.1485996650788</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.0958809612271</v>
+        <v>247.8555057738383</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.5716424976223</v>
+        <v>224.2005241702423</v>
       </c>
       <c r="AD2" t="n">
-        <v>141857.6397046772</v>
+        <v>181148.5996650789</v>
       </c>
       <c r="AE2" t="n">
-        <v>194095.8809612271</v>
+        <v>247855.5057738383</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.586010208419135e-06</v>
+        <v>5.500031498619531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>175571.6424976223</v>
+        <v>224200.5241702423</v>
       </c>
     </row>
     <row r="3">
@@ -9342,28 +9342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.4578276344888</v>
+        <v>160.6634467403188</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.1839581106179</v>
+        <v>219.8268158010314</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.3235943892366</v>
+        <v>198.8468530299178</v>
       </c>
       <c r="AD3" t="n">
-        <v>121457.8276344888</v>
+        <v>160663.4467403188</v>
       </c>
       <c r="AE3" t="n">
-        <v>166183.9581106179</v>
+        <v>219826.8158010314</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.94156869855685e-06</v>
+        <v>6.045368176905547e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.761574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>150323.5943892366</v>
+        <v>198846.8530299178</v>
       </c>
     </row>
   </sheetData>
@@ -16396,28 +16396,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.7760148059999</v>
+        <v>155.4491446749162</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.7240481867637</v>
+        <v>212.6923776763794</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.430384640573</v>
+        <v>192.3933156666334</v>
       </c>
       <c r="AD2" t="n">
-        <v>124776.0148059999</v>
+        <v>155449.1446749162</v>
       </c>
       <c r="AE2" t="n">
-        <v>170724.0481867637</v>
+        <v>212692.3776763794</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.940121854133072e-06</v>
+        <v>6.156362676739038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>154430.3846405729</v>
+        <v>192393.3156666335</v>
       </c>
     </row>
     <row r="3">
@@ -16502,28 +16502,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.5753739873823</v>
+        <v>154.8313335832672</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.5035696319973</v>
+        <v>211.8470612848839</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.2807728110294</v>
+        <v>191.628675085133</v>
       </c>
       <c r="AD3" t="n">
-        <v>116575.3739873823</v>
+        <v>154831.3335832672</v>
       </c>
       <c r="AE3" t="n">
-        <v>159503.5696319973</v>
+        <v>211847.0612848839</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.973385107576948e-06</v>
+        <v>6.208335854115261e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.987268518518517</v>
       </c>
       <c r="AH3" t="n">
-        <v>144280.7728110294</v>
+        <v>191628.675085133</v>
       </c>
     </row>
   </sheetData>
@@ -16799,28 +16799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.389859688501</v>
+        <v>158.7633891383034</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.459205485269</v>
+        <v>217.2270731653299</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.4771339442724</v>
+        <v>196.4952261826051</v>
       </c>
       <c r="AD2" t="n">
-        <v>122389.859688501</v>
+        <v>158763.3891383034</v>
       </c>
       <c r="AE2" t="n">
-        <v>167459.205485269</v>
+        <v>217227.0731653299</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.817821071327018e-06</v>
+        <v>6.221811880371211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.04050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>151477.1339442724</v>
+        <v>196495.2261826051</v>
       </c>
     </row>
   </sheetData>
@@ -17096,28 +17096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.5717158703608</v>
+        <v>266.3548897056907</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.3229761234738</v>
+        <v>364.4385108437347</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.0423271742459</v>
+        <v>329.6570108614703</v>
       </c>
       <c r="AD2" t="n">
-        <v>216571.7158703608</v>
+        <v>266354.8897056907</v>
       </c>
       <c r="AE2" t="n">
-        <v>296322.9761234738</v>
+        <v>364438.5108437347</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.721961764821069e-06</v>
+        <v>4.021374062660429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.77662037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>268042.327174246</v>
+        <v>329657.0108614703</v>
       </c>
     </row>
     <row r="3">
@@ -17202,28 +17202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.2972170760726</v>
+        <v>199.6126030715858</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.589235983726</v>
+        <v>273.1187698089489</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.9182632864032</v>
+        <v>247.0526977430637</v>
       </c>
       <c r="AD3" t="n">
-        <v>158297.2170760726</v>
+        <v>199612.6030715858</v>
       </c>
       <c r="AE3" t="n">
-        <v>216589.235983726</v>
+        <v>273118.7698089489</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.443623130988245e-06</v>
+        <v>5.087542712578826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.311342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>195918.2632864032</v>
+        <v>247052.6977430637</v>
       </c>
     </row>
     <row r="4">
@@ -17308,28 +17308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.9201439076949</v>
+        <v>179.3207812492287</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.7084255017439</v>
+        <v>245.354603979616</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.6983582258493</v>
+        <v>221.9383049332221</v>
       </c>
       <c r="AD4" t="n">
-        <v>137920.1439076949</v>
+        <v>179320.7812492287</v>
       </c>
       <c r="AE4" t="n">
-        <v>188708.4255017439</v>
+        <v>245354.603979616</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.692670529076027e-06</v>
+        <v>5.455480557991253e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.680555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>170698.3582258493</v>
+        <v>221938.3049332221</v>
       </c>
     </row>
     <row r="5">
@@ -17414,28 +17414,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.9205906998505</v>
+        <v>177.3212280413842</v>
       </c>
       <c r="AB5" t="n">
-        <v>185.9725485887109</v>
+        <v>242.6187270665829</v>
       </c>
       <c r="AC5" t="n">
-        <v>168.2235895655678</v>
+        <v>219.4635362729406</v>
       </c>
       <c r="AD5" t="n">
-        <v>135920.5906998505</v>
+        <v>177321.2280413843</v>
       </c>
       <c r="AE5" t="n">
-        <v>185972.5485887108</v>
+        <v>242618.7270665829</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.731168736743067e-06</v>
+        <v>5.51235707101653e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH5" t="n">
-        <v>168223.5895655678</v>
+        <v>219463.5362729406</v>
       </c>
     </row>
   </sheetData>
@@ -17711,28 +17711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.2254928059788</v>
+        <v>339.757780490333</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.4168819333698</v>
+        <v>464.8715843222755</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.8241128506218</v>
+        <v>420.504892765923</v>
       </c>
       <c r="AD2" t="n">
-        <v>280225.4928059787</v>
+        <v>339757.780490333</v>
       </c>
       <c r="AE2" t="n">
-        <v>383416.8819333698</v>
+        <v>464871.5843222755</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.308836158662357e-06</v>
+        <v>3.352820331772928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.37962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>346824.1128506218</v>
+        <v>420504.8927659231</v>
       </c>
     </row>
     <row r="3">
@@ -17817,28 +17817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.0911549458922</v>
+        <v>233.6508178034043</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.459348543622</v>
+        <v>319.6913568650517</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.5060352791955</v>
+        <v>289.1804624555835</v>
       </c>
       <c r="AD3" t="n">
-        <v>191091.1549458922</v>
+        <v>233650.8178034043</v>
       </c>
       <c r="AE3" t="n">
-        <v>261459.348543622</v>
+        <v>319691.3568650517</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.081864439277982e-06</v>
+        <v>4.475388049087755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.02314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>236506.0352791955</v>
+        <v>289180.4624555835</v>
       </c>
     </row>
     <row r="4">
@@ -17923,28 +17923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>166.462318323678</v>
+        <v>200.5783391950552</v>
       </c>
       <c r="AB4" t="n">
-        <v>227.7610877295384</v>
+        <v>274.44013257835</v>
       </c>
       <c r="AC4" t="n">
-        <v>206.0238891813912</v>
+        <v>248.2479515042979</v>
       </c>
       <c r="AD4" t="n">
-        <v>166462.318323678</v>
+        <v>200578.3391950552</v>
       </c>
       <c r="AE4" t="n">
-        <v>227761.0877295384</v>
+        <v>274440.13257835</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.370215410959076e-06</v>
+        <v>4.894122395789501e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>206023.8891813912</v>
+        <v>248247.9515042979</v>
       </c>
     </row>
     <row r="5">
@@ -18029,28 +18029,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>149.3343556504569</v>
+        <v>191.8939289994179</v>
       </c>
       <c r="AB5" t="n">
-        <v>204.3258535676657</v>
+        <v>262.557739419547</v>
       </c>
       <c r="AC5" t="n">
-        <v>184.8252808763624</v>
+        <v>237.4995972715238</v>
       </c>
       <c r="AD5" t="n">
-        <v>149334.3556504569</v>
+        <v>191893.9289994179</v>
       </c>
       <c r="AE5" t="n">
-        <v>204325.8535676657</v>
+        <v>262557.739419547</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.516419282013226e-06</v>
+        <v>5.106435127299329e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.784722222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>184825.2808763624</v>
+        <v>237499.5972715238</v>
       </c>
     </row>
     <row r="6">
@@ -18135,28 +18135,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>144.8573892550646</v>
+        <v>187.4169626040257</v>
       </c>
       <c r="AB6" t="n">
-        <v>198.2002706356753</v>
+        <v>256.4321564875567</v>
       </c>
       <c r="AC6" t="n">
-        <v>179.2843149820895</v>
+        <v>231.958631377251</v>
       </c>
       <c r="AD6" t="n">
-        <v>144857.3892550647</v>
+        <v>187416.9626040257</v>
       </c>
       <c r="AE6" t="n">
-        <v>198200.2706356753</v>
+        <v>256432.1564875566</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.591629670591282e-06</v>
+        <v>5.215653323245785e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.599537037037036</v>
       </c>
       <c r="AH6" t="n">
-        <v>179284.3149820895</v>
+        <v>231958.631377251</v>
       </c>
     </row>
     <row r="7">
@@ -18241,28 +18241,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>145.0805916452724</v>
+        <v>187.6401649942334</v>
       </c>
       <c r="AB7" t="n">
-        <v>198.5056659929518</v>
+        <v>256.7375518448331</v>
       </c>
       <c r="AC7" t="n">
-        <v>179.5605638350928</v>
+        <v>232.2348802302542</v>
       </c>
       <c r="AD7" t="n">
-        <v>145080.5916452724</v>
+        <v>187640.1649942334</v>
       </c>
       <c r="AE7" t="n">
-        <v>198505.6659929518</v>
+        <v>256737.5518448331</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.590295206634964e-06</v>
+        <v>5.213715456035948e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.605324074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>179560.5638350928</v>
+        <v>232234.8802302542</v>
       </c>
     </row>
   </sheetData>
@@ -18538,28 +18538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.607315909056</v>
+        <v>169.1307075300299</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.2297151472664</v>
+        <v>231.4120955626906</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.6969142630917</v>
+        <v>209.3264499511701</v>
       </c>
       <c r="AD2" t="n">
-        <v>126607.315909056</v>
+        <v>169130.7075300299</v>
       </c>
       <c r="AE2" t="n">
-        <v>173229.7151472664</v>
+        <v>231412.0955626906</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.50671505440531e-06</v>
+        <v>5.84548506897085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.31944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>156696.9142630917</v>
+        <v>209326.4499511701</v>
       </c>
     </row>
   </sheetData>
@@ -18835,28 +18835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.9690944862045</v>
+        <v>198.4536586319557</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.5625753623218</v>
+        <v>271.5330508976277</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.848533082196</v>
+        <v>245.6183176190681</v>
       </c>
       <c r="AD2" t="n">
-        <v>150969.0944862044</v>
+        <v>198453.6586319557</v>
       </c>
       <c r="AE2" t="n">
-        <v>206562.5753623218</v>
+        <v>271533.0508976277</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.415283519783931e-06</v>
+        <v>5.197742603816646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.959490740740742</v>
       </c>
       <c r="AH2" t="n">
-        <v>186848.533082196</v>
+        <v>245618.3176190681</v>
       </c>
     </row>
     <row r="3">
@@ -18941,28 +18941,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.0924558641376</v>
+        <v>163.7198198886448</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.7887726860159</v>
+        <v>224.0086803802359</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.5843705209489</v>
+        <v>202.6296063229682</v>
       </c>
       <c r="AD3" t="n">
-        <v>124092.4558641376</v>
+        <v>163719.8198886449</v>
       </c>
       <c r="AE3" t="n">
-        <v>169788.7726860159</v>
+        <v>224008.6803802359</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.905809824785689e-06</v>
+        <v>5.94427783552757e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.709490740740742</v>
       </c>
       <c r="AH3" t="n">
-        <v>153584.3705209488</v>
+        <v>202629.6063229681</v>
       </c>
     </row>
     <row r="4">
@@ -19047,28 +19047,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.5058212958494</v>
+        <v>164.1331853203567</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.3543575060795</v>
+        <v>224.5742652002995</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.095976719589</v>
+        <v>203.1412125216083</v>
       </c>
       <c r="AD4" t="n">
-        <v>124505.8212958494</v>
+        <v>164133.1853203567</v>
       </c>
       <c r="AE4" t="n">
-        <v>170354.3575060795</v>
+        <v>224574.2652002996</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.904810430348365e-06</v>
+        <v>5.942756850515695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.715277777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>154095.976719589</v>
+        <v>203141.2125216083</v>
       </c>
     </row>
   </sheetData>
@@ -19344,28 +19344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.0522943618312</v>
+        <v>235.964280425446</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.933201310559</v>
+        <v>322.8567384872953</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.5072957820579</v>
+        <v>292.0437444984422</v>
       </c>
       <c r="AD2" t="n">
-        <v>187052.2943618312</v>
+        <v>235964.280425446</v>
       </c>
       <c r="AE2" t="n">
-        <v>255933.201310559</v>
+        <v>322856.7384872953</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.979601939748324e-06</v>
+        <v>4.448279599777038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.99537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>231507.2957820579</v>
+        <v>292043.7444984422</v>
       </c>
     </row>
     <row r="3">
@@ -19450,28 +19450,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.2266329084081</v>
+        <v>178.9723978189919</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.1277772738599</v>
+        <v>244.8779304007739</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.0776876533986</v>
+        <v>221.507124411729</v>
       </c>
       <c r="AD3" t="n">
-        <v>138226.6329084081</v>
+        <v>178972.3978189919</v>
       </c>
       <c r="AE3" t="n">
-        <v>189127.7772738599</v>
+        <v>244877.9304007739</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.64940816954111e-06</v>
+        <v>5.448240483156811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.975694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>171077.6876533986</v>
+        <v>221507.124411729</v>
       </c>
     </row>
     <row r="4">
@@ -19556,28 +19556,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.2924508832115</v>
+        <v>172.0382157937953</v>
       </c>
       <c r="AB4" t="n">
-        <v>179.6401235124701</v>
+        <v>235.3902766393841</v>
       </c>
       <c r="AC4" t="n">
-        <v>162.4955222509871</v>
+        <v>212.9249590093175</v>
       </c>
       <c r="AD4" t="n">
-        <v>131292.4508832115</v>
+        <v>172038.2157937953</v>
       </c>
       <c r="AE4" t="n">
-        <v>179640.1235124701</v>
+        <v>235390.2766393841</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.80302098918431e-06</v>
+        <v>5.677570704340917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.611111111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>162495.5222509871</v>
+        <v>212924.9590093175</v>
       </c>
     </row>
     <row r="5">
@@ -19662,28 +19662,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.5015054807254</v>
+        <v>172.2472703913091</v>
       </c>
       <c r="AB5" t="n">
-        <v>179.9261612356264</v>
+        <v>235.6763143625404</v>
       </c>
       <c r="AC5" t="n">
-        <v>162.7542609353019</v>
+        <v>213.1836976936323</v>
       </c>
       <c r="AD5" t="n">
-        <v>131501.5054807254</v>
+        <v>172247.2703913091</v>
       </c>
       <c r="AE5" t="n">
-        <v>179926.1612356264</v>
+        <v>235676.3143625404</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.805341595523798e-06</v>
+        <v>5.681035162361753e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.605324074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>162754.2609353019</v>
+        <v>213183.6976936323</v>
       </c>
     </row>
   </sheetData>
